--- a/biology/Histoire de la zoologie et de la botanique/Arthur_Adams_(zoologiste)/Arthur_Adams_(zoologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Arthur_Adams_(zoologiste)/Arthur_Adams_(zoologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Adams est un médecin de marine et un conchyliologiste britannique, né en 1820 à Gosport et mort en 1878 dans la même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin à bord de l’H.M.S. Actaeon durant un voyage au Japon, en Corée et en Chine. À bord de l’H.M.S. Samarang, il voyage dans l'archipel malais de 1843 à 1846. Il fait paraître Zoology of the voyage of H.M.S. Samarang (1850). Adam White (1817-1879) l'assiste pour la description des crustacés récoltés durant le voyage.
 Il fait paraître avec son frère Henry Adams (1813-1877), The genera of recent mollusca : arranged according to their organization (trois volumes, 1853-1858).
